--- a/U de M/data/female densities by size 1997-2023.xlsx
+++ b/U de M/data/female densities by size 1997-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\github\snow-crab-population-dynamics\U de M\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC396A70-AA5D-44AA-815F-49AAE53C1398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D748098-FC86-442A-9B00-9C522C653AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1400E1DE-418C-4F25-B3A8-2EADF96004A8}"/>
+    <workbookView xWindow="-27150" yWindow="1350" windowWidth="27000" windowHeight="14145" xr2:uid="{1400E1DE-418C-4F25-B3A8-2EADF96004A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Immature" sheetId="1" r:id="rId1"/>
@@ -944,11 +944,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CAD28E-5A83-486F-A8A1-3ADC870BD129}">
-  <dimension ref="A1:CR28"/>
+  <dimension ref="A1:CR101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9101,6 +9099,225 @@
       <c r="CR28" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="29" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9111,9 +9328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA808BD-D21E-4E2A-80D1-2DA2C279AC35}">
   <dimension ref="A1:CR28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17275,9 +17490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B0E484-D00F-4239-8208-25AC84CD1428}">
   <dimension ref="A1:CR28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CR28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25439,9 +25652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3D6D1A-7503-42F7-9C12-29862D644ED0}">
   <dimension ref="A1:CR28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -33603,7 +33814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB3FD1-C271-4585-AF51-55E18217CD0F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
